--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_16_1.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_16_1.xlsx
@@ -518,111 +518,111 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_16_1_11</t>
+          <t>model_16_1_8</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999858894290924</v>
+        <v>0.9998926826520091</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990967448460766</v>
+        <v>0.9989851588111262</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999240512509487</v>
+        <v>0.9995452175164461</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997989916651082</v>
+        <v>0.9995887156039592</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9998778467506584</v>
+        <v>0.9995685095912532</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001317159855976381</v>
+        <v>0.0001001760336622924</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008431490378685967</v>
+        <v>0.0009473097034340262</v>
       </c>
       <c r="I2" t="n">
-        <v>8.819905054833753e-05</v>
+        <v>0.0003242748117134039</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001576507097396021</v>
+        <v>7.678062135383268e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001229248801439698</v>
+        <v>0.0002005277165336183</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001176733173500658</v>
+        <v>0.00116795842871169</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01147675849696412</v>
+        <v>0.01000879781303891</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000376281890869</v>
+        <v>1.000286179594642</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01196534786634514</v>
+        <v>0.01043489305700769</v>
       </c>
       <c r="P2" t="n">
-        <v>83.86972515541474</v>
+        <v>84.41716316585973</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.0926273760654</v>
+        <v>124.6400653865104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_16_1_12</t>
+          <t>model_16_1_9</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998823094160997</v>
+        <v>0.9998952532810772</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990962922836077</v>
+        <v>0.9989851131027701</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999408250969057</v>
+        <v>0.9995411409305079</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998124958974477</v>
+        <v>0.9994963436626568</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9998927877581938</v>
+        <v>0.9995468291796549</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001098589940513716</v>
+        <v>9.77764642648831e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008435714850680739</v>
+        <v>0.0009473523701780582</v>
       </c>
       <c r="I3" t="n">
-        <v>6.871963441665918e-05</v>
+        <v>0.0003271815510565152</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001470593488691095</v>
+        <v>9.402507584113031e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001078894916428843</v>
+        <v>0.0002106033134488227</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001075519993593469</v>
+        <v>0.001137903671574739</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01048136413122699</v>
+        <v>0.009888198231471853</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000313841557068</v>
+        <v>1.000279324583794</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01092757750170818</v>
+        <v>0.01030915930157778</v>
       </c>
       <c r="P3" t="n">
-        <v>84.23262577346632</v>
+        <v>84.46565332314616</v>
       </c>
       <c r="Q3" t="n">
-        <v>124.4555279941169</v>
+        <v>124.6885555437968</v>
       </c>
     </row>
     <row r="4">
@@ -632,1097 +632,1097 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998295396031447</v>
+        <v>0.9998967205589657</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990934495212016</v>
+        <v>0.9989828890544887</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999018764005712</v>
+        <v>0.9995339659366144</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997797298767025</v>
+        <v>0.9994033223270702</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9998575456932978</v>
+        <v>0.9995226414144824</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0001591172981177858</v>
+        <v>9.640682476201298e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008462250789912967</v>
+        <v>0.0009494284216241702</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001139506366348114</v>
+        <v>0.0003322975567911573</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000172757718185995</v>
+        <v>0.0001113907624907066</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001433541774104032</v>
+        <v>0.000221844159640932</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001289381566534102</v>
+        <v>0.001110379236086055</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01261417052832987</v>
+        <v>0.009818697712121145</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000454561058281</v>
+        <v>1.000275411842758</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01315118188265362</v>
+        <v>0.0102367000012324</v>
       </c>
       <c r="P4" t="n">
-        <v>83.49173780743482</v>
+        <v>84.49386712513454</v>
       </c>
       <c r="Q4" t="n">
-        <v>123.7146400280855</v>
+        <v>124.7167693457852</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_16_1_13</t>
+          <t>model_16_1_7</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999009881405938</v>
+        <v>0.9998886737150872</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990931911504465</v>
+        <v>0.9989823926335174</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999534608564188</v>
+        <v>0.9995444360091691</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999821736600253</v>
+        <v>0.9996678718742782</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999036796284184</v>
+        <v>0.999583808757709</v>
       </c>
       <c r="G5" t="n">
-        <v>9.242322463739054e-05</v>
+        <v>0.0001039182003069553</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008464662567500711</v>
+        <v>0.0009498918088105719</v>
       </c>
       <c r="I5" t="n">
-        <v>5.404576544668453e-05</v>
+        <v>0.0003248320520079726</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001398118715119244</v>
+        <v>6.200333420739027e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>9.692881847930446e-05</v>
+        <v>0.0001934176931076814</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0009858929972425482</v>
+        <v>0.001200109188401455</v>
       </c>
       <c r="M5" t="n">
-        <v>0.009613699841236492</v>
+        <v>0.01019402767834948</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000264031625083</v>
+        <v>1.000296870093101</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0100229749465801</v>
+        <v>0.01062800854116322</v>
       </c>
       <c r="P5" t="n">
-        <v>84.57826452401994</v>
+        <v>84.34381300762858</v>
       </c>
       <c r="Q5" t="n">
-        <v>124.8011667446706</v>
+        <v>124.5667152282792</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_16_1_14</t>
+          <t>model_16_1_11</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999158364939285</v>
+        <v>0.9998960893664716</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990881920909355</v>
+        <v>0.998977509835826</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999627732584714</v>
+        <v>0.9995185522879009</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998276951831739</v>
+        <v>0.9993026954568861</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999113749065078</v>
+        <v>0.999490605837616</v>
       </c>
       <c r="G6" t="n">
-        <v>7.856293856688854e-05</v>
+        <v>9.699601524916061e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008511326593702295</v>
+        <v>0.0009544496861254601</v>
       </c>
       <c r="I6" t="n">
-        <v>4.323130135576041e-05</v>
+        <v>0.0003432879933518321</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001351385587011101</v>
+        <v>0.0001301762882534126</v>
       </c>
       <c r="K6" t="n">
-        <v>8.918493002843528e-05</v>
+        <v>0.0002367321408026224</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0009163173531993707</v>
+        <v>0.001089410732440061</v>
       </c>
       <c r="M6" t="n">
-        <v>0.008863573690498011</v>
+        <v>0.009848655504644307</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000224436016191</v>
+        <v>1.000277095022742</v>
       </c>
       <c r="O6" t="n">
-        <v>0.009240914372629484</v>
+        <v>0.01026793315900446</v>
       </c>
       <c r="P6" t="n">
-        <v>84.90322097846925</v>
+        <v>84.48168132042051</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.1261231991199</v>
+        <v>124.7045835410711</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_16_1_9</t>
+          <t>model_16_1_6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9997930086280424</v>
+        <v>0.9998819624630028</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990853674336442</v>
+        <v>0.9989750945915922</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9998731968385768</v>
+        <v>0.9995327814646424</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997534250950656</v>
+        <v>0.9997364506780759</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9998307468235758</v>
+        <v>0.9995886422464516</v>
       </c>
       <c r="G7" t="n">
-        <v>0.000193217359851278</v>
+        <v>0.0001101828595378419</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008537693529635378</v>
+        <v>0.0009567042106008038</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001472561244755143</v>
+        <v>0.0003331421241163761</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001933885417627313</v>
+        <v>4.920070124106781e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001703223331191228</v>
+        <v>0.000191171412678722</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001414179856960264</v>
+        <v>0.001239628783423028</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01390026474033059</v>
+        <v>0.01049680234823167</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000551976991887</v>
+        <v>1.000314766765326</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01449202778784125</v>
+        <v>0.01094367295557227</v>
       </c>
       <c r="P7" t="n">
-        <v>83.10338957183967</v>
+        <v>84.22673842585402</v>
       </c>
       <c r="Q7" t="n">
-        <v>123.3262917924903</v>
+        <v>124.4496406465046</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_16_1_15</t>
+          <t>model_16_1_12</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999275792370348</v>
+        <v>0.9998946141556304</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990818582434486</v>
+        <v>0.998970857098607</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999694323158397</v>
+        <v>0.9995008888451141</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998311114975043</v>
+        <v>0.9992032364215808</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999165485034583</v>
+        <v>0.9994570789093168</v>
       </c>
       <c r="G8" t="n">
-        <v>6.760160332393429e-05</v>
+        <v>9.837305981511859e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008570450279754371</v>
+        <v>0.0009606597242979725</v>
       </c>
       <c r="I8" t="n">
-        <v>3.549815835130504e-05</v>
+        <v>0.0003558826068011814</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001324591455356801</v>
+        <v>0.0001487437967791511</v>
       </c>
       <c r="K8" t="n">
-        <v>8.397865194349255e-05</v>
+        <v>0.0002523132017901662</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0008534095762627008</v>
+        <v>0.001069795046613597</v>
       </c>
       <c r="M8" t="n">
-        <v>0.008222019418849258</v>
+        <v>0.009918319404774107</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000193122034574</v>
+        <v>1.000281028918319</v>
       </c>
       <c r="O8" t="n">
-        <v>0.008572047807436216</v>
+        <v>0.01034056279558694</v>
       </c>
       <c r="P8" t="n">
-        <v>85.20375771477387</v>
+        <v>84.45348714751597</v>
       </c>
       <c r="Q8" t="n">
-        <v>125.4266599354245</v>
+        <v>124.6763893681666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_16_1_16</t>
+          <t>model_16_1_13</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999936816398875</v>
+        <v>0.9998931823051186</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990746141840527</v>
+        <v>0.9989648591576108</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999740287450452</v>
+        <v>0.9994871006434672</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998325884292097</v>
+        <v>0.9991070490709739</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999197762022894</v>
+        <v>0.9994271819688376</v>
       </c>
       <c r="G9" t="n">
-        <v>5.897911821068252e-05</v>
+        <v>9.970962941689908e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008638070394440128</v>
+        <v>0.0009662585389387315</v>
       </c>
       <c r="I9" t="n">
-        <v>3.016033913892463e-05</v>
+        <v>0.0003657140463455005</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001313007889345253</v>
+        <v>0.0001667005308956615</v>
       </c>
       <c r="K9" t="n">
-        <v>8.073056403672497e-05</v>
+        <v>0.000266207288620581</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0007966145500264712</v>
+        <v>0.001049362274544608</v>
       </c>
       <c r="M9" t="n">
-        <v>0.007679786338869235</v>
+        <v>0.009985470916131051</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000168489603</v>
+        <v>1.00028484718635</v>
       </c>
       <c r="O9" t="n">
-        <v>0.008006730742664229</v>
+        <v>0.01041057308580514</v>
       </c>
       <c r="P9" t="n">
-        <v>85.47665421067715</v>
+        <v>84.42649660347931</v>
       </c>
       <c r="Q9" t="n">
-        <v>125.6995564313278</v>
+        <v>124.6493988241299</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_16_1_8</t>
+          <t>model_16_1_5</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9997475824169273</v>
+        <v>0.9998722488964789</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990709812707468</v>
+        <v>0.9989625376001846</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9998363508271239</v>
+        <v>0.9995109630446173</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9997180592447794</v>
+        <v>0.9997994614568519</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9997957048928879</v>
+        <v>0.9995845602421103</v>
       </c>
       <c r="G10" t="n">
-        <v>0.000235620733947053</v>
+        <v>0.000119250047511636</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008671982045487009</v>
+        <v>0.0009684256108915329</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001900452851560103</v>
+        <v>0.0003486993724744551</v>
       </c>
       <c r="J10" t="n">
-        <v>0.000221125955741927</v>
+        <v>3.743753494302071e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0002055856204489687</v>
+        <v>0.0001930684537087379</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001573962818684577</v>
+        <v>0.001286628821085821</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01534994247373758</v>
+        <v>0.01092016700932893</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000673113554861</v>
+        <v>1.00034066960939</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01600342130360598</v>
+        <v>0.01138506112677811</v>
       </c>
       <c r="P10" t="n">
-        <v>82.70657421038079</v>
+        <v>84.06857605955095</v>
       </c>
       <c r="Q10" t="n">
-        <v>122.9294764310314</v>
+        <v>124.2914782802016</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_16_1_17</t>
+          <t>model_16_1_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999440404294867</v>
+        <v>0.9998913272562628</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990668339580078</v>
+        <v>0.9989585153667748</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999770092882431</v>
+        <v>0.9994731420663988</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999832633488497</v>
+        <v>0.9990154663506484</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999215135454989</v>
+        <v>0.9993980791752159</v>
       </c>
       <c r="G11" t="n">
-        <v>5.223580273293242e-05</v>
+        <v>0.0001014412360965303</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008710695389445319</v>
+        <v>0.0009721801892238959</v>
       </c>
       <c r="I11" t="n">
-        <v>2.669904341710981e-05</v>
+        <v>0.0003756669691478571</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001312654489640417</v>
+        <v>0.000183797649676627</v>
       </c>
       <c r="K11" t="n">
-        <v>7.898224619057575e-05</v>
+        <v>0.0002797323094122421</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0007453503529894853</v>
+        <v>0.001030506005114881</v>
       </c>
       <c r="M11" t="n">
-        <v>0.007227434035183747</v>
+        <v>0.01007180401400515</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000149225521369</v>
+        <v>1.000289793983299</v>
       </c>
       <c r="O11" t="n">
-        <v>0.007535120864912493</v>
+        <v>0.01050058156238989</v>
       </c>
       <c r="P11" t="n">
-        <v>85.71948484414278</v>
+        <v>84.39206176371083</v>
       </c>
       <c r="Q11" t="n">
-        <v>125.9423870647934</v>
+        <v>124.6149639843615</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_16_1_18</t>
+          <t>model_16_1_15</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999496444420323</v>
+        <v>0.9998890528166393</v>
       </c>
       <c r="C12" t="n">
-        <v>0.999058772284255</v>
+        <v>0.9989518056868312</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999787658673118</v>
+        <v>0.9994586169354479</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9998315597268819</v>
+        <v>0.99892761701574</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999221086658577</v>
+        <v>0.9993692916117249</v>
       </c>
       <c r="G12" t="n">
-        <v>4.700470300935165e-05</v>
+        <v>0.0001035643256487459</v>
       </c>
       <c r="H12" t="n">
-        <v>0.000878594757526223</v>
+        <v>0.0009784433809303539</v>
       </c>
       <c r="I12" t="n">
-        <v>2.465913350394451e-05</v>
+        <v>0.0003860238634314732</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001321075995187346</v>
+        <v>0.0002001978014565743</v>
       </c>
       <c r="K12" t="n">
-        <v>7.838336651133955e-05</v>
+        <v>0.0002931108324440237</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0006990892314967071</v>
+        <v>0.001013595308766718</v>
       </c>
       <c r="M12" t="n">
-        <v>0.006855997594030474</v>
+        <v>0.01017665591679044</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000134281487914</v>
+        <v>1.000295859155629</v>
       </c>
       <c r="O12" t="n">
-        <v>0.007147871605479893</v>
+        <v>0.01060989722775011</v>
       </c>
       <c r="P12" t="n">
-        <v>85.93052579446305</v>
+        <v>84.35063526891953</v>
       </c>
       <c r="Q12" t="n">
-        <v>126.1534280151137</v>
+        <v>124.5735374895702</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_16_1_19</t>
+          <t>model_16_1_4</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999539717011895</v>
+        <v>0.9998611307518127</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990507297847468</v>
+        <v>0.9989467766306651</v>
       </c>
       <c r="D13" t="n">
-        <v>0.999979601781539</v>
+        <v>0.9994905112760898</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9998298557613947</v>
+        <v>0.9998550237404109</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999219269763682</v>
+        <v>0.9995800306096014</v>
       </c>
       <c r="G13" t="n">
-        <v>4.29653965307562e-05</v>
+        <v>0.0001296283475273693</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008861020777921364</v>
+        <v>0.0009831377841113109</v>
       </c>
       <c r="I13" t="n">
-        <v>2.36883888623234e-05</v>
+        <v>0.0003632821535363187</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001334440185709706</v>
+        <v>2.706489086375381e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>7.856620371664698e-05</v>
+        <v>0.0001951735222000362</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0006573241988035521</v>
+        <v>0.001332697809142456</v>
       </c>
       <c r="M13" t="n">
-        <v>0.006554799503475007</v>
+        <v>0.01138544454676098</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000122742130161</v>
+        <v>1.000370317995166</v>
       </c>
       <c r="O13" t="n">
-        <v>0.006833850888643479</v>
+        <v>0.01187014649223592</v>
       </c>
       <c r="P13" t="n">
-        <v>86.11023099616816</v>
+        <v>83.90167813408632</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.3331332168188</v>
+        <v>124.1245803547369</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_16_1_7</t>
+          <t>model_16_1_16</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9996911504179107</v>
+        <v>0.9998871003385303</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990483034987785</v>
+        <v>0.9989461624908581</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9997892196789842</v>
+        <v>0.9994478659338087</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9996710752845986</v>
+        <v>0.9988479382509254</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9997502009626432</v>
+        <v>0.9993450404197047</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0002882975279505717</v>
+        <v>0.0001053868782595689</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008883669092419848</v>
+        <v>0.0009837110566636065</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0002447785436902654</v>
+        <v>0.000393689679856582</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0002579754459526545</v>
+        <v>0.0002150726304801442</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00025137699482146</v>
+        <v>0.0003043811551683631</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001768138439399383</v>
+        <v>0.0009966863928537793</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01697932648695382</v>
+        <v>0.01026581113500385</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000823598885572</v>
+        <v>1.000301065763919</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01770217156755473</v>
+        <v>0.0107028479681796</v>
       </c>
       <c r="P14" t="n">
-        <v>82.30303505585958</v>
+        <v>84.31574484859624</v>
       </c>
       <c r="Q14" t="n">
-        <v>122.5259372765102</v>
+        <v>124.5386470692468</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_16_1_20</t>
+          <t>model_16_1_17</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999572802388308</v>
+        <v>0.9998849781613208</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990428421646748</v>
+        <v>0.9989405381486629</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999797349750682</v>
+        <v>0.9994371623150349</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9998276491270902</v>
+        <v>0.9987733291670511</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999211439304726</v>
+        <v>0.999321843832599</v>
       </c>
       <c r="G15" t="n">
-        <v>3.987702187071451e-05</v>
+        <v>0.0001073678375318272</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008934648249029609</v>
+        <v>0.0009889611332226694</v>
       </c>
       <c r="I15" t="n">
-        <v>2.353371162330004e-05</v>
+        <v>0.0004013217107461745</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001351746804583703</v>
+        <v>0.0002290010261928398</v>
       </c>
       <c r="K15" t="n">
-        <v>7.935419604083518e-05</v>
+        <v>0.0003151613684695072</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0006196016980179718</v>
+        <v>0.0009814555880639686</v>
       </c>
       <c r="M15" t="n">
-        <v>0.006314825561384456</v>
+        <v>0.01036184527638911</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000113919363118</v>
+        <v>1.000306724903145</v>
       </c>
       <c r="O15" t="n">
-        <v>0.006583660759023589</v>
+        <v>0.01080297048178171</v>
       </c>
       <c r="P15" t="n">
-        <v>86.2594205858461</v>
+        <v>84.27849977011962</v>
       </c>
       <c r="Q15" t="n">
-        <v>126.4823228064967</v>
+        <v>124.5014019907702</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_16_1_21</t>
+          <t>model_16_1_18</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999597785914024</v>
+        <v>0.9998828721259889</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990351788533557</v>
+        <v>0.9989352445592441</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999793647191872</v>
+        <v>0.9994274739304726</v>
       </c>
       <c r="E16" t="n">
-        <v>0.999825126786263</v>
+        <v>0.9987043296743665</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999199473653948</v>
+        <v>0.999300552772673</v>
       </c>
       <c r="G16" t="n">
-        <v>3.754491941002955e-05</v>
+        <v>0.0001093337290698659</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009006181896388391</v>
+        <v>0.0009939024665833974</v>
       </c>
       <c r="I16" t="n">
-        <v>2.396368864816793e-05</v>
+        <v>0.0004082298463787994</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001371529507715622</v>
+        <v>0.0002418821954577584</v>
       </c>
       <c r="K16" t="n">
-        <v>8.055831970986505e-05</v>
+        <v>0.0003250560209182789</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0005877328976428696</v>
+        <v>0.0009675513178782471</v>
       </c>
       <c r="M16" t="n">
-        <v>0.006127390913760076</v>
+        <v>0.01045627701765145</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000107257089594</v>
+        <v>1.000312340997363</v>
       </c>
       <c r="O16" t="n">
-        <v>0.006388246630406631</v>
+        <v>0.01090142237777025</v>
       </c>
       <c r="P16" t="n">
-        <v>86.37994498180964</v>
+        <v>84.24221123742667</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.6028472024603</v>
+        <v>124.4651134580773</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_16_1_22</t>
+          <t>model_16_1_19</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999616399816391</v>
+        <v>0.999880865462607</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990278367929228</v>
+        <v>0.998930357495198</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999786267935187</v>
+        <v>0.9994188603090076</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9998224477355929</v>
+        <v>0.9986415764688393</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999184775855727</v>
+        <v>0.9992813407887347</v>
       </c>
       <c r="G17" t="n">
-        <v>3.580739332972963e-05</v>
+        <v>0.0001112068612545714</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009074716807736023</v>
+        <v>0.0009984643263531376</v>
       </c>
       <c r="I17" t="n">
-        <v>2.482063947562445e-05</v>
+        <v>0.0004143716407085343</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001392541285151982</v>
+        <v>0.0002535972766976551</v>
       </c>
       <c r="K17" t="n">
-        <v>8.203738399541132e-05</v>
+        <v>0.0003339844587030947</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0005625990230970026</v>
+        <v>0.0009546282799635518</v>
       </c>
       <c r="M17" t="n">
-        <v>0.005983927918159579</v>
+        <v>0.01054546638392875</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000102293382296</v>
+        <v>1.000317692099715</v>
       </c>
       <c r="O17" t="n">
-        <v>0.006238676118074079</v>
+        <v>0.01099440872001741</v>
       </c>
       <c r="P17" t="n">
-        <v>86.47471233657845</v>
+        <v>84.20823695224335</v>
       </c>
       <c r="Q17" t="n">
-        <v>126.6976145572291</v>
+        <v>124.431139172894</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_16_1_23</t>
+          <t>model_16_1_3</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999629971348341</v>
+        <v>0.9998470096917667</v>
       </c>
       <c r="C18" t="n">
-        <v>0.999020864904844</v>
+        <v>0.9989272297754498</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999776381286267</v>
+        <v>0.9994708796657849</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9998196842667914</v>
+        <v>0.999905964351812</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999168302315792</v>
+        <v>0.9995752018835558</v>
       </c>
       <c r="G18" t="n">
-        <v>3.454055039438697e-05</v>
+        <v>0.0001428097372374141</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009139796322647493</v>
+        <v>0.001001383915447066</v>
       </c>
       <c r="I18" t="n">
-        <v>2.596877299809537e-05</v>
+        <v>0.0003772801349131428</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001414215153459554</v>
+        <v>1.755504358246102e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>8.369514417202537e-05</v>
+        <v>0.0001974175892478019</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000542091895909958</v>
+        <v>0.001392027250637261</v>
       </c>
       <c r="M18" t="n">
-        <v>0.005877120927323767</v>
+        <v>0.01195030280944438</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000098674307109</v>
+        <v>1.000407974155289</v>
       </c>
       <c r="O18" t="n">
-        <v>0.006127322132517436</v>
+        <v>0.01245905194057954</v>
       </c>
       <c r="P18" t="n">
-        <v>86.54675310077511</v>
+        <v>83.70799464489282</v>
       </c>
       <c r="Q18" t="n">
-        <v>126.7696553214257</v>
+        <v>123.9308968655434</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_16_1_6</t>
+          <t>model_16_1_20</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9996212644290734</v>
+        <v>0.9998789898736373</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990151943729237</v>
+        <v>0.998925936479672</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9997295268747446</v>
+        <v>0.9994114668887606</v>
       </c>
       <c r="E19" t="n">
-        <v>0.999609594328533</v>
+        <v>0.9985842957182256</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9996917996054578</v>
+        <v>0.9992641640268516</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0003535330308897802</v>
+        <v>0.000112957641228871</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009192728249047216</v>
+        <v>0.001002591150286537</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0003140996151267139</v>
+        <v>0.0004196433915899472</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0003061949208537446</v>
+        <v>0.0002642907327734881</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0003101472679902293</v>
+        <v>0.0003419670621817177</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001987805301529068</v>
+        <v>0.0009426807903150003</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0188024740629998</v>
+        <v>0.01062815323698671</v>
       </c>
       <c r="N19" t="n">
-        <v>1.001009961522471</v>
+        <v>1.0003226936703</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01960293431034875</v>
+        <v>0.01108061572359543</v>
       </c>
       <c r="P19" t="n">
-        <v>81.89506727483561</v>
+        <v>84.17699533181964</v>
       </c>
       <c r="Q19" t="n">
-        <v>122.1179694954862</v>
+        <v>124.3998975524703</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_16_1_24</t>
+          <t>model_16_1_21</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999639614224314</v>
+        <v>0.9998771529025381</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990142772617825</v>
+        <v>0.9989216835299174</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999764878925209</v>
+        <v>0.9994043852664078</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9998169118514821</v>
+        <v>0.9985318856608136</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999150861640671</v>
+        <v>0.9992482047468936</v>
       </c>
       <c r="G20" t="n">
-        <v>3.364043024958348e-05</v>
+        <v>0.0001146723731163635</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009201289078985013</v>
+        <v>0.001006561092199537</v>
       </c>
       <c r="I20" t="n">
-        <v>2.73045386784176e-05</v>
+        <v>0.0004246928203566595</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001435959189169558</v>
+        <v>0.000274074903561441</v>
       </c>
       <c r="K20" t="n">
-        <v>8.545022879768671e-05</v>
+        <v>0.0003493838619590502</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0005235904083677477</v>
+        <v>0.000933129597414731</v>
       </c>
       <c r="M20" t="n">
-        <v>0.00580003709036274</v>
+        <v>0.0107085187171879</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000096102873516</v>
+        <v>1.000327592259898</v>
       </c>
       <c r="O20" t="n">
-        <v>0.006046956677031437</v>
+        <v>0.01116440252866826</v>
       </c>
       <c r="P20" t="n">
-        <v>86.59956386624033</v>
+        <v>84.14686284989514</v>
       </c>
       <c r="Q20" t="n">
-        <v>126.822466086891</v>
+        <v>124.3697650705458</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_16_1_5</t>
+          <t>model_16_1_22</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9995348973009039</v>
+        <v>0.9998755362568773</v>
       </c>
       <c r="C21" t="n">
-        <v>0.998968750789331</v>
+        <v>0.9989180237038043</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9996544343843259</v>
+        <v>0.9993988922853739</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9995299780432682</v>
+        <v>0.9984843172912008</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9996174454527204</v>
+        <v>0.9992344366443436</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0004341529539571685</v>
+        <v>0.0001161814408781341</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009626258715507777</v>
+        <v>0.001009977379228261</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0004013042951375022</v>
+        <v>0.0004286094958112493</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0003686379229590255</v>
+        <v>0.0002829552039346548</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0003849711090482639</v>
+        <v>0.000355782349872952</v>
       </c>
       <c r="L21" t="n">
-        <v>0.002230534755556414</v>
+        <v>0.0009242655376460696</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02083633734506064</v>
+        <v>0.01077874950437824</v>
       </c>
       <c r="N21" t="n">
-        <v>1.001240273864256</v>
+        <v>1.000331903314994</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02172338336300432</v>
+        <v>0.01123762318586707</v>
       </c>
       <c r="P21" t="n">
-        <v>81.48422731495891</v>
+        <v>84.12071488671647</v>
       </c>
       <c r="Q21" t="n">
-        <v>121.7071295356095</v>
+        <v>124.3436171073671</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_16_1_4</t>
+          <t>model_16_1_23</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9994283002479737</v>
+        <v>0.9998738574308719</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9989054813892015</v>
+        <v>0.9989143530910856</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9995605001934215</v>
+        <v>0.9993929152421412</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9994278468057793</v>
+        <v>0.998440145955651</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9995234457629992</v>
+        <v>0.9992209794979902</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0005336566237977755</v>
+        <v>0.0001177485512622192</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001021685079366036</v>
+        <v>0.001013403735080007</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00051038978443499</v>
+        <v>0.0004328713234738836</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0004487393878329676</v>
+        <v>0.0002912013290543714</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0004795645861339788</v>
+        <v>0.0003620363262641275</v>
       </c>
       <c r="L22" t="n">
-        <v>0.002498998146129599</v>
+        <v>0.0009167490066240262</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02310100915106904</v>
+        <v>0.01085120045258677</v>
       </c>
       <c r="N22" t="n">
-        <v>1.00152453267207</v>
+        <v>1.000336380184342</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02408446693631141</v>
+        <v>0.01131315852093497</v>
       </c>
       <c r="P22" t="n">
-        <v>81.07151590486055</v>
+        <v>84.09391825729801</v>
       </c>
       <c r="Q22" t="n">
-        <v>121.2944181255112</v>
+        <v>124.3168204779486</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_16_1_3</t>
+          <t>model_16_1_24</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9992969966305251</v>
+        <v>0.9998723580042754</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9988211101965881</v>
+        <v>0.9989111247089606</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9994435196324831</v>
+        <v>0.9993879258152327</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9992976714991501</v>
+        <v>0.9984004246267596</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9994052197960016</v>
+        <v>0.9992091737870954</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0006562227871233575</v>
+        <v>0.0001191482001728129</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001100441884203246</v>
+        <v>0.001016417288084038</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0006462389529368279</v>
+        <v>0.0004364289483381172</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0005508357983709847</v>
+        <v>0.0002986167047473048</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0005985373756539063</v>
+        <v>0.000367522826542711</v>
       </c>
       <c r="L23" t="n">
-        <v>0.002795602570562092</v>
+        <v>0.0009097130295812176</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02561684576842663</v>
+        <v>0.01091550274484931</v>
       </c>
       <c r="N23" t="n">
-        <v>1.001874675651933</v>
+        <v>1.000340378655266</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02670740792696967</v>
+        <v>0.01138019829490323</v>
       </c>
       <c r="P23" t="n">
-        <v>80.65802042431766</v>
+        <v>84.07028492018242</v>
       </c>
       <c r="Q23" t="n">
-        <v>120.8809226449683</v>
+        <v>124.293187140833</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9991352008445678</v>
+        <v>0.9998302039172148</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9987098974554265</v>
+        <v>0.9989051761173966</v>
       </c>
       <c r="D24" t="n">
-        <v>0.999297626766658</v>
+        <v>0.999461299336921</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9991326577060536</v>
+        <v>0.999946281083621</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9992567351829179</v>
+        <v>0.9995759500986593</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0008072520513003312</v>
+        <v>0.0001584971900933894</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001204254096402511</v>
+        <v>0.001021970037196025</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0008156638928902935</v>
+        <v>0.0003841112232923906</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0006802560117789622</v>
+        <v>1.002851510470988e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0007479599523346278</v>
+        <v>0.0001970698691985502</v>
       </c>
       <c r="L24" t="n">
-        <v>0.003123644100318474</v>
+        <v>0.001457036988915397</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02841218138933248</v>
+        <v>0.01258956671587189</v>
       </c>
       <c r="N24" t="n">
-        <v>1.002306131081153</v>
+        <v>1.000452789554094</v>
       </c>
       <c r="O24" t="n">
-        <v>0.02962174677239994</v>
+        <v>0.01312553063496239</v>
       </c>
       <c r="P24" t="n">
-        <v>80.24374921446478</v>
+        <v>83.499547385843</v>
       </c>
       <c r="Q24" t="n">
-        <v>120.4666514351154</v>
+        <v>123.7224496064936</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9989361907272777</v>
+        <v>0.9998098921628813</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9985653491404517</v>
+        <v>0.9988812855711224</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9991165974911671</v>
+        <v>0.9994658711219433</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9989250252113914</v>
+        <v>0.9999620545702405</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9990713687359822</v>
+        <v>0.9995826254468773</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0009930192602560638</v>
+        <v>0.0001774573211807183</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001339183603493757</v>
+        <v>0.001044270813469137</v>
       </c>
       <c r="I25" t="n">
-        <v>0.001025892638184859</v>
+        <v>0.0003808513907769913</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0008431020458308407</v>
+        <v>7.083841989921412e-06</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0009344973420078498</v>
+        <v>0.0001939676163834564</v>
       </c>
       <c r="L25" t="n">
-        <v>0.003486366565128954</v>
+        <v>0.001537350900897402</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03151220811457147</v>
+        <v>0.01332131079063612</v>
       </c>
       <c r="N25" t="n">
-        <v>1.002836824727259</v>
+        <v>1.000506954232317</v>
       </c>
       <c r="O25" t="n">
-        <v>0.03285374805327233</v>
+        <v>0.01388842656990839</v>
       </c>
       <c r="P25" t="n">
-        <v>79.82952099615788</v>
+        <v>83.2735608440248</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.0524232168085</v>
+        <v>123.4964630646754</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9986920178327655</v>
+        <v>0.9997840977674681</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9983794998766867</v>
+        <v>0.9988542048914698</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9988933242187339</v>
+        <v>0.9994788726270843</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9986657085534592</v>
+        <v>0.9999347410300351</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9988414866495944</v>
+        <v>0.9995871134794869</v>
       </c>
       <c r="G26" t="n">
-        <v>0.001220943939331839</v>
+        <v>0.0002015352570557935</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001512665733378595</v>
+        <v>0.001069549439220442</v>
       </c>
       <c r="I26" t="n">
-        <v>0.001285179208239154</v>
+        <v>0.0003715808916173516</v>
       </c>
       <c r="J26" t="n">
-        <v>0.001046483936399346</v>
+        <v>1.218286983666703e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.00116583157231925</v>
+        <v>0.0001918818807270093</v>
       </c>
       <c r="L26" t="n">
-        <v>0.003887280922138207</v>
+        <v>0.001664191812280568</v>
       </c>
       <c r="M26" t="n">
-        <v>0.03494200823266801</v>
+        <v>0.0141963113890825</v>
       </c>
       <c r="N26" t="n">
-        <v>1.003487952445959</v>
+        <v>1.000575739286752</v>
       </c>
       <c r="O26" t="n">
-        <v>0.03642956186306127</v>
+        <v>0.01480067775533157</v>
       </c>
       <c r="P26" t="n">
-        <v>79.41626199728155</v>
+        <v>83.01909243780383</v>
       </c>
       <c r="Q26" t="n">
-        <v>119.6391642179322</v>
+        <v>123.2419946584545</v>
       </c>
     </row>
   </sheetData>
